--- a/data/trans_orig/P6510-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF67C47B-7410-4E03-8A95-F7FF22E0FDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAAC0EFB-600D-4D6F-81DF-436F0A5831C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EBCEC7E-9C29-4495-9DC4-3BF73DF43BFF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE1255A0-8F11-49B5-90AD-50AD286E1FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="242">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>19,7%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
   <si>
     <t>29,85%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,676 +104,661 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>12,17%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>23,29%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1188,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AABE36-C567-4579-BA37-BE075DB411B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191520AF-2C0A-438E-816E-04F5F1459946}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1605,7 +1590,7 @@
         <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1605,13 @@
         <v>121166</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -1635,13 +1620,13 @@
         <v>66158</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -1650,13 +1635,13 @@
         <v>187324</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1656,13 @@
         <v>147869</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>82</v>
@@ -1686,13 +1671,13 @@
         <v>88053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>224</v>
@@ -1701,13 +1686,13 @@
         <v>235922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,10 +1707,10 @@
         <v>142484</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>79</v>
@@ -1829,10 +1814,10 @@
         <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -1841,13 +1826,13 @@
         <v>83757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>230</v>
@@ -1856,13 +1841,13 @@
         <v>239002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1862,13 @@
         <v>137097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -1892,13 +1877,13 @@
         <v>68958</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>194</v>
@@ -1910,10 +1895,10 @@
         <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1913,13 @@
         <v>138287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -1943,13 +1928,13 @@
         <v>89170</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -1958,13 +1943,13 @@
         <v>227458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1964,13 @@
         <v>136983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -1994,10 +1979,10 @@
         <v>62662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>116</v>
@@ -2104,7 +2089,7 @@
         <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -2113,13 +2098,13 @@
         <v>160261</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2119,13 @@
         <v>88815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2149,13 +2134,13 @@
         <v>37282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>117</v>
@@ -2164,13 +2149,13 @@
         <v>126097</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2170,13 @@
         <v>120477</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -2200,13 +2185,13 @@
         <v>55444</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -2215,13 +2200,13 @@
         <v>175921</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2221,13 @@
         <v>111615</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -2251,13 +2236,13 @@
         <v>33100</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -2269,10 +2254,10 @@
         <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +2313,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2340,13 +2325,13 @@
         <v>40029</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -2355,13 +2340,13 @@
         <v>11813</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -2370,13 +2355,13 @@
         <v>51841</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2376,7 @@
         <v>41542</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>164</v>
@@ -2421,13 +2406,13 @@
         <v>59836</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2427,13 @@
         <v>47476</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -2457,13 +2442,13 @@
         <v>22213</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -2472,13 +2457,13 @@
         <v>69689</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2478,13 @@
         <v>34321</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2508,13 +2493,13 @@
         <v>11964</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M27" s="7">
         <v>46</v>
@@ -2523,13 +2508,13 @@
         <v>46285</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2570,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2597,13 +2582,13 @@
         <v>3244</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2612,13 +2597,13 @@
         <v>2674</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2627,13 +2612,13 @@
         <v>5918</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2633,13 @@
         <v>819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2663,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2678,13 +2663,13 @@
         <v>819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2684,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2714,13 +2699,13 @@
         <v>947</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2729,13 +2714,13 @@
         <v>1922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2765,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2780,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2839,13 @@
         <v>491269</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H34" s="7">
         <v>283</v>
@@ -2869,28 +2854,28 @@
         <v>298092</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M34" s="7">
         <v>756</v>
       </c>
       <c r="N34" s="7">
-        <v>789362</v>
+        <v>789361</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2890,13 @@
         <v>414776</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>208</v>
@@ -2920,13 +2905,13 @@
         <v>216821</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M35" s="7">
         <v>607</v>
@@ -2935,13 +2920,13 @@
         <v>631597</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2941,13 @@
         <v>514077</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
         <v>277</v>
@@ -2971,13 +2956,13 @@
         <v>289290</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M36" s="7">
         <v>770</v>
@@ -2986,13 +2971,13 @@
         <v>803366</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +2992,13 @@
         <v>482852</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>93</v>
       </c>
       <c r="H37" s="7">
         <v>212</v>
@@ -3022,28 +3007,28 @@
         <v>220116</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>669</v>
       </c>
       <c r="N37" s="7">
-        <v>702968</v>
+        <v>702967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3070,7 @@
         <v>2802</v>
       </c>
       <c r="N38" s="7">
-        <v>2927293</v>
+        <v>2927292</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3099,7 +3084,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAAC0EFB-600D-4D6F-81DF-436F0A5831C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB8BB491-B154-47CE-8AC3-5A61AECDA17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE1255A0-8F11-49B5-90AD-50AD286E1FA9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2DAB29F-B7A9-4CB3-88A0-C2C8A615DDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="243">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,691 +74,694 @@
     <t>19,7%</t>
   </si>
   <si>
-    <t>13,81%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1173,7 +1176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191520AF-2C0A-438E-816E-04F5F1459946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F26189-E313-4873-B55E-3A9824422BCB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1587,10 +1590,10 @@
         <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,10 +1713,10 @@
         <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -1722,13 +1725,13 @@
         <v>72625</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>199</v>
@@ -1737,13 +1740,13 @@
         <v>215109</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,7 +1802,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1811,13 +1814,13 @@
         <v>155245</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -1826,13 +1829,13 @@
         <v>83757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>230</v>
@@ -1841,13 +1844,13 @@
         <v>239002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,13 +1865,13 @@
         <v>137097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -1877,13 +1880,13 @@
         <v>68958</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>194</v>
@@ -1895,10 +1898,10 @@
         <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1916,13 @@
         <v>138287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -1928,13 +1931,13 @@
         <v>89170</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -1943,13 +1946,13 @@
         <v>227458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,13 +1967,13 @@
         <v>136983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -1979,13 +1982,13 @@
         <v>62662</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
@@ -1994,13 +1997,13 @@
         <v>199646</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,7 +2059,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2068,13 +2071,13 @@
         <v>116353</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2083,13 +2086,13 @@
         <v>43908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -2101,10 +2104,10 @@
         <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2122,13 @@
         <v>88815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2134,13 +2137,13 @@
         <v>37282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>117</v>
@@ -2149,13 +2152,13 @@
         <v>126097</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2173,13 @@
         <v>120477</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -2185,13 +2188,13 @@
         <v>55444</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -2200,13 +2203,13 @@
         <v>175921</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,7 +2224,7 @@
         <v>111615</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>148</v>
@@ -2242,7 +2245,7 @@
         <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -2254,10 +2257,10 @@
         <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,7 +2316,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2325,10 +2328,10 @@
         <v>40029</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>157</v>
@@ -2340,13 +2343,13 @@
         <v>11813</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -2355,13 +2358,13 @@
         <v>51841</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2379,13 @@
         <v>41542</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2391,13 +2394,13 @@
         <v>18294</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -2406,13 +2409,13 @@
         <v>59836</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2430,13 @@
         <v>47476</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -2442,13 +2445,13 @@
         <v>22213</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -2457,13 +2460,13 @@
         <v>69689</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2481,13 @@
         <v>34321</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2493,13 +2496,13 @@
         <v>11964</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>46</v>
@@ -2508,13 +2511,13 @@
         <v>46285</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,7 +2573,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2582,13 +2585,13 @@
         <v>3244</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2597,13 +2600,13 @@
         <v>2674</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2612,13 +2615,13 @@
         <v>5918</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2636,13 @@
         <v>819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2648,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2663,13 +2666,13 @@
         <v>819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2687,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2699,13 +2702,13 @@
         <v>947</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2714,13 +2717,13 @@
         <v>1922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2750,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2765,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2842,13 @@
         <v>491269</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>283</v>
@@ -2854,13 +2857,13 @@
         <v>298092</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
         <v>756</v>
@@ -2869,13 +2872,13 @@
         <v>789361</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2893,13 @@
         <v>414776</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H35" s="7">
         <v>208</v>
@@ -2905,10 +2908,10 @@
         <v>216821</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>222</v>
@@ -2977,7 +2980,7 @@
         <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>234</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2995,13 @@
         <v>482852</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>212</v>
@@ -3007,13 +3010,13 @@
         <v>220116</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="M37" s="7">
         <v>669</v>
@@ -3022,13 +3025,13 @@
         <v>702967</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3087,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB8BB491-B154-47CE-8AC3-5A61AECDA17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4020B774-C31B-4BFE-9870-C178CD43B7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2DAB29F-B7A9-4CB3-88A0-C2C8A615DDF3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{050E7291-EFBC-40B0-BA4F-4741F20817F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>19,7%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>29,85%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
   </si>
   <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,634 +134,646 @@
     <t>33,41%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
   </si>
   <si>
     <t>23,63%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
     <t>24,11%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>25,56%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1176,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F26189-E313-4873-B55E-3A9824422BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07501E57-B513-41ED-B028-A0B0B71CC8CA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1590,10 +1602,10 @@
         <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1620,13 @@
         <v>121166</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -1623,13 +1635,13 @@
         <v>66158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -1638,13 +1650,13 @@
         <v>187324</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1671,13 @@
         <v>147869</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>82</v>
@@ -1674,13 +1686,13 @@
         <v>88053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>224</v>
@@ -1689,13 +1701,13 @@
         <v>235922</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,13 +1722,13 @@
         <v>142484</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>70</v>
@@ -1725,13 +1737,13 @@
         <v>72625</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>199</v>
@@ -1740,13 +1752,13 @@
         <v>215109</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,7 +1814,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1814,13 +1826,13 @@
         <v>155245</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -1829,13 +1841,13 @@
         <v>83757</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>230</v>
@@ -1844,13 +1856,13 @@
         <v>239002</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1877,13 @@
         <v>137097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -1880,13 +1892,13 @@
         <v>68958</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>194</v>
@@ -1898,10 +1910,10 @@
         <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1928,13 @@
         <v>138287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -1931,13 +1943,13 @@
         <v>89170</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -1946,13 +1958,13 @@
         <v>227458</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1979,13 @@
         <v>136983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -1982,13 +1994,13 @@
         <v>62662</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>192</v>
@@ -1997,13 +2009,13 @@
         <v>199646</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2071,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2071,13 +2083,13 @@
         <v>116353</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -2086,13 +2098,13 @@
         <v>43908</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -2101,13 +2113,13 @@
         <v>160261</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2134,13 @@
         <v>88815</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2137,13 +2149,13 @@
         <v>37282</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>117</v>
@@ -2152,13 +2164,13 @@
         <v>126097</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2185,13 @@
         <v>120477</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -2188,13 +2200,13 @@
         <v>55444</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -2203,13 +2215,13 @@
         <v>175921</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2236,13 @@
         <v>111615</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -2239,13 +2251,13 @@
         <v>33100</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -2331,10 +2343,10 @@
         <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -2343,13 +2355,13 @@
         <v>11813</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -2358,13 +2370,13 @@
         <v>51841</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2391,13 @@
         <v>41542</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -2394,13 +2406,13 @@
         <v>18294</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>61</v>
@@ -2448,10 +2460,10 @@
         <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>70</v>
@@ -2460,13 +2472,13 @@
         <v>69689</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2493,13 @@
         <v>34321</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2496,13 +2508,13 @@
         <v>11964</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>46</v>
@@ -2511,13 +2523,13 @@
         <v>46285</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,7 +2585,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2585,13 +2597,13 @@
         <v>3244</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2600,13 +2612,13 @@
         <v>2674</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2615,13 +2627,13 @@
         <v>5918</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2648,13 @@
         <v>819</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2651,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2666,13 +2678,13 @@
         <v>819</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2699,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2702,13 +2714,13 @@
         <v>947</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2717,13 +2729,13 @@
         <v>1922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2753,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2768,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2854,13 @@
         <v>491269</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>283</v>
@@ -2857,28 +2869,28 @@
         <v>298092</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
         <v>756</v>
       </c>
       <c r="N34" s="7">
-        <v>789361</v>
+        <v>789362</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2905,13 @@
         <v>414776</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H35" s="7">
         <v>208</v>
@@ -2908,13 +2920,13 @@
         <v>216821</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M35" s="7">
         <v>607</v>
@@ -2923,13 +2935,13 @@
         <v>631597</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2956,13 @@
         <v>514077</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>277</v>
@@ -2959,13 +2971,13 @@
         <v>289290</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>770</v>
@@ -2974,13 +2986,13 @@
         <v>803366</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3007,13 @@
         <v>482852</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>212</v>
@@ -3010,28 +3022,28 @@
         <v>220116</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>669</v>
       </c>
       <c r="N37" s="7">
-        <v>702967</v>
+        <v>702968</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3085,7 @@
         <v>2802</v>
       </c>
       <c r="N38" s="7">
-        <v>2927292</v>
+        <v>2927293</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3087,7 +3099,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4020B774-C31B-4BFE-9870-C178CD43B7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C9DB45-8925-4966-9DDE-A09E0ACF748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{050E7291-EFBC-40B0-BA4F-4741F20817F4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A1127AB1-6A42-45ED-A097-37092A499297}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="245">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>25,6%</t>
@@ -296,7 +296,7 @@
     <t>27,3%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>27,35%</t>
@@ -398,7 +398,7 @@
     <t>25,84%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>26,61%</t>
@@ -503,7 +503,7 @@
     <t>27,48%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>24,5%</t>
@@ -605,13 +605,13 @@
     <t>25,9%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -623,40 +623,25 @@
     <t>21,88%</t>
   </si>
   <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
+    <t>56,93%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
   </si>
   <si>
     <t>26,15%</t>
@@ -665,16 +650,25 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>23,71%</t>
@@ -1188,8 +1182,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07501E57-B513-41ED-B028-A0B0B71CC8CA}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08B0877-3905-4666-B151-41F94D94A88D}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2591,10 +2585,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>3244</v>
+        <v>1593</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>190</v>
@@ -2621,10 +2615,10 @@
         <v>192</v>
       </c>
       <c r="M29" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>5918</v>
+        <v>4266</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>195</v>
@@ -2633,7 +2627,7 @@
         <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,19 +2636,19 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2663,28 +2657,28 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2693,13 @@
         <v>975</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2714,13 +2708,13 @@
         <v>947</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2729,13 +2723,13 @@
         <v>1922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2765,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2780,13 +2774,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,10 +2789,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2825,10 +2819,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2842,55 +2836,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>473</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>491269</v>
+        <v>1652</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="H34" s="7">
-        <v>283</v>
-      </c>
-      <c r="I34" s="7">
-        <v>298092</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M34" s="7">
-        <v>756</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>789362</v>
+        <v>1652</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,49 +2891,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>414776</v>
+        <v>819</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I35" s="7">
-        <v>216821</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="M35" s="7">
-        <v>607</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>631597</v>
+        <v>819</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,49 +2940,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>514077</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="H36" s="7">
-        <v>277</v>
-      </c>
-      <c r="I36" s="7">
-        <v>289290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>803366</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,49 +2989,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>482852</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="H37" s="7">
-        <v>212</v>
-      </c>
-      <c r="I37" s="7">
-        <v>220116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7">
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>702968</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,63 +3038,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>473</v>
+      </c>
+      <c r="D39" s="7">
+        <v>491269</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" s="7">
+        <v>283</v>
+      </c>
+      <c r="I39" s="7">
+        <v>298092</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M39" s="7">
+        <v>756</v>
+      </c>
+      <c r="N39" s="7">
+        <v>789362</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>399</v>
+      </c>
+      <c r="D40" s="7">
+        <v>414776</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H40" s="7">
+        <v>208</v>
+      </c>
+      <c r="I40" s="7">
+        <v>216821</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="7">
+        <v>607</v>
+      </c>
+      <c r="N40" s="7">
+        <v>631597</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>493</v>
+      </c>
+      <c r="D41" s="7">
+        <v>514077</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="7">
+        <v>277</v>
+      </c>
+      <c r="I41" s="7">
+        <v>289290</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M41" s="7">
+        <v>770</v>
+      </c>
+      <c r="N41" s="7">
+        <v>803366</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>457</v>
+      </c>
+      <c r="D42" s="7">
+        <v>482852</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="7">
+        <v>212</v>
+      </c>
+      <c r="I42" s="7">
+        <v>220116</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M42" s="7">
+        <v>669</v>
+      </c>
+      <c r="N42" s="7">
+        <v>702968</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1822</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1902974</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>980</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1024319</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2802</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2927293</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>246</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
